--- a/MomStatusFile/MOM.xlsx
+++ b/MomStatusFile/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8698A689-B3BC-4DE4-B0F9-2395751D9CD9}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F28CBF2-A051-4606-AA5F-75EC48787C01}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Resource Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Arokiya Renit D</t>
   </si>
   <si>
-    <t>Will work on Regression 25.2 for Google, Target &amp; Koodo</t>
-  </si>
-  <si>
     <t>Himanshu</t>
   </si>
   <si>
@@ -100,7 +97,7 @@
   <si>
     <t>Will work on Regression 25.2
 Will debug and rerun failures
-ATT Opus c care and vzw PIF</t>
+ATT Opus c care and vzw PIF ,ATT B2B ECF</t>
   </si>
   <si>
     <t>Mohit Kumar</t>
@@ -114,9 +111,9 @@
     <t>Sangeeta Mehra</t>
   </si>
   <si>
-    <t>Will work on regression for CEW
+    <t>Will work on CEW rerun failures
 Will connect with Sourav sir for my queries
-Will connect with regression team</t>
+Will connect with Dipak sir for ecf queries</t>
   </si>
   <si>
     <t>Arshdeep Singh</t>
@@ -126,17 +123,13 @@
 Pocket Geek</t>
   </si>
   <si>
-    <t>Will work on Device Condition session migration to item details for both CE and CEW.
-Will take scheduled interview.</t>
-  </si>
-  <si>
     <t>Rishab</t>
   </si>
   <si>
     <t>Bugbot</t>
   </si>
   <si>
-    <t>Requirements gathering in assigning roles and privileges to the user from admin panel and api creation.</t>
+    <t>Working on user privileges assignment from admin panel apis creation module.</t>
   </si>
   <si>
     <t>Akhil</t>
@@ -176,11 +169,6 @@
   </si>
   <si>
     <t>Raghav</t>
-  </si>
-  <si>
-    <t>WIll work on regression execution for 25.2 release.
-Will work on Executions on AWS Distributed load test Environmnet.
-Will attend morning and Evening Scrum.</t>
   </si>
   <si>
     <t>Abhishek</t>
@@ -190,8 +178,7 @@
 (Backup resource)&amp;BugBot</t>
   </si>
   <si>
-    <t>Will do testing of auto form filler module
-Will write test cases for Reptor Gen module.</t>
+    <t>Will write test cases for Multi URL's Module and complete Raptor Gen module</t>
   </si>
   <si>
     <t>Aman</t>
@@ -201,7 +188,7 @@
 (Backup resource) &amp; Ceretax</t>
   </si>
   <si>
-    <t>will do deployments on Auto &amp; Perf if required, will work on the user stories provided by Anurag for ceretax project.</t>
+    <t>will do deployments on Auto &amp; Perf if required, will work with Anurag on ceretax project.</t>
   </si>
   <si>
     <t>Amritpal Singh</t>
@@ -237,7 +224,7 @@
     <t>Tevio</t>
   </si>
   <si>
-    <t>Create Test Cases for Admin , Delivery Management module</t>
+    <t>Review Test Cases for Admin , Vendor , Customer</t>
   </si>
   <si>
     <t>Devvrat Soam</t>
@@ -250,6 +237,9 @@
   </si>
   <si>
     <t>Nitin Lamba</t>
+  </si>
+  <si>
+    <t>I continue my  work on the API testcases of efx org and after that work on the new testcases.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,7 +591,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,22 +1337,18 @@
       <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="21">
-        <v>8</v>
-      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="29.25">
       <c r="A6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="24">
         <v>8</v>
@@ -1371,13 +1356,13 @@
     </row>
     <row r="7" spans="1:4" ht="29.25">
       <c r="A7" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="21">
         <v>8</v>
@@ -1385,13 +1370,13 @@
     </row>
     <row r="8" spans="1:4" ht="43.5">
       <c r="A8" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="24">
         <v>8</v>
@@ -1399,13 +1384,13 @@
     </row>
     <row r="9" spans="1:4" ht="43.5">
       <c r="A9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="21">
         <v>8</v>
@@ -1413,13 +1398,13 @@
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="21">
         <v>8</v>
@@ -1427,24 +1412,20 @@
     </row>
     <row r="11" spans="1:4" ht="29.25">
       <c r="A11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="26">
-        <v>8</v>
-      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="29.25">
       <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21">
@@ -1491,13 +1472,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="18">
         <v>8</v>
@@ -1505,13 +1486,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="15">
         <v>8</v>
@@ -1519,13 +1500,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="19">
         <v>8</v>
@@ -1533,13 +1514,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="21">
         <v>8</v>
@@ -1547,13 +1528,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="21">
         <v>8</v>
@@ -1597,29 +1578,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C2" s="20"/>
       <c r="D2" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25">
       <c r="A3" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="31">
         <v>8</v>
@@ -1627,13 +1606,13 @@
     </row>
     <row r="4" spans="1:4" ht="29.25">
       <c r="A4" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="33">
         <v>8</v>
@@ -1679,13 +1658,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="15">
         <v>8</v>
@@ -1693,13 +1672,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15">
         <v>8</v>
@@ -1707,13 +1686,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="15">
         <v>8</v>
@@ -1721,13 +1700,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
@@ -1746,7 +1725,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,13 +1752,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="34">
         <v>8</v>
@@ -1787,13 +1766,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="34">
         <v>8</v>
@@ -1801,12 +1780,14 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="26"/>
       <c r="D4" s="34">
         <v>8</v>
       </c>

--- a/MomStatusFile/MOM.xlsx
+++ b/MomStatusFile/MOM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="374" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F28CBF2-A051-4606-AA5F-75EC48787C01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A386C1E-0655-4A77-B33A-49BF7F3D73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Resource Name</t>
   </si>
@@ -55,65 +55,74 @@
     <t>Assurant-DLS</t>
   </si>
   <si>
-    <t>Will do the regression on  ATT Dealer
-Will do the regression on ATT Sofi
+    <t>Will Working on Regression ATT CE Dealer and ATT Sofi 25.2 release and validate reports
+Will upload artifacts on wiki
 Will connect with regression team</t>
   </si>
   <si>
     <t>Shaifali Sharma</t>
   </si>
   <si>
-    <t>Reviewing PR, Team Queries, Work with coverage sheet</t>
+    <t>Reviewing PR, Team Queries, Work with coverage sheet, work with regression</t>
   </si>
   <si>
     <t>Adesh Sharawat</t>
   </si>
   <si>
     <t>Will do the regression for ATT B2B, B2B Verizon and Tracfone.
-Will execute b2b kitting feed scenarios.
 Will do the debug and rerun failures.
-Will connect with regression team.</t>
+Will connect with regression team.
+Will upload regression artifacts on wiki page.
+Will work on regression fixes.</t>
   </si>
   <si>
     <t>Arokiya Renit D</t>
   </si>
   <si>
+    <t>Will work on Regression 25.2 for Google, Target &amp; Koodo</t>
+  </si>
+  <si>
     <t>Himanshu</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanity for 25.2 release of uscc, google canada and wow
+Team connects
+Artifacts upload </t>
+  </si>
+  <si>
+    <t>Sourav Monga</t>
+  </si>
+  <si>
+    <t>Will complete CEW regression 25.2
+Will upload regression artifacts on wiki page
+Will connect with Sangeeta for the regression</t>
+  </si>
+  <si>
+    <t>Dipak Chougule</t>
+  </si>
+  <si>
     <t>Will work on Regression 25.2
-Team connects</t>
-  </si>
-  <si>
-    <t>Sourav Monga</t>
-  </si>
-  <si>
-    <t>Will continue work on CEW regression
-Will connect with Sangeeta for the regression</t>
-  </si>
-  <si>
-    <t>Dipak Chougule</t>
-  </si>
-  <si>
-    <t>Will work on Regression 25.2
-Will debug and rerun failures
-ATT Opus c care and vzw PIF ,ATT B2B ECF</t>
+Will rerun failures in ATT Consumer
+Will do sanity for Telus ,ATT Opus C care, ATT Consumer, VZW B2B PIF</t>
   </si>
   <si>
     <t>Mohit Kumar</t>
   </si>
   <si>
     <t>Working on Regression ATT CE Corporate 25.2 release and validate reports
-Working on Regression for Freedom 25.2 release and validate reports
+Will upload artifacts on wiki
+Will connect with regression team
+Will work on Regression Fixes</t>
+  </si>
+  <si>
+    <t>Sangeeta Mehra</t>
+  </si>
+  <si>
+    <t>Will connect with Raghav sir for Ecf Database testcases
+Will connect with Sourav sir for my queries
+Will connect with Dipak sir for ecf queries
+Will upload artifacts on wiki
 Will connect with regression team</t>
-  </si>
-  <si>
-    <t>Sangeeta Mehra</t>
-  </si>
-  <si>
-    <t>Will work on CEW rerun failures
-Will connect with Sourav sir for my queries
-Will connect with Dipak sir for ecf queries</t>
   </si>
   <si>
     <t>Arshdeep Singh</t>
@@ -123,13 +132,18 @@
 Pocket Geek</t>
   </si>
   <si>
+    <t>Will work on data migration to itemdetails from session.
+Will make few changes in docker file to resolve apkanalyzer issue in pocketgeek.
+Will connect with Rob and Harsha for my queries related to different aab files.</t>
+  </si>
+  <si>
     <t>Rishab</t>
   </si>
   <si>
     <t>Bugbot</t>
   </si>
   <si>
-    <t>Working on user privileges assignment from admin panel apis creation module.</t>
+    <t>Requirements gathering and flow setup for the apis design of UserQueries Module.</t>
   </si>
   <si>
     <t>Akhil</t>
@@ -169,6 +183,11 @@
   </si>
   <si>
     <t>Raghav</t>
+  </si>
+  <si>
+    <t>Load test executions for 25.2. and Automation regression for 25.2
+Provide estimatins fo race gaming project.
+Attend morning and Evening Scrum.</t>
   </si>
   <si>
     <t>Abhishek</t>
@@ -178,9 +197,6 @@
 (Backup resource)&amp;BugBot</t>
   </si>
   <si>
-    <t>Will write test cases for Multi URL's Module and complete Raptor Gen module</t>
-  </si>
-  <si>
     <t>Aman</t>
   </si>
   <si>
@@ -224,22 +240,19 @@
     <t>Tevio</t>
   </si>
   <si>
-    <t>Review Test Cases for Admin , Vendor , Customer</t>
-  </si>
-  <si>
     <t>Devvrat Soam</t>
   </si>
   <si>
     <t>Scramble</t>
   </si>
   <si>
-    <t>I am working on User as a manager account and updating test cases.</t>
+    <t>I am working on security page of Scramble mobile application.</t>
   </si>
   <si>
     <t>Nitin Lamba</t>
   </si>
   <si>
-    <t>I continue my  work on the API testcases of efx org and after that work on the new testcases.</t>
+    <t>I am checking the tool of desktop automation to integrate in  our script  to cover testcases of desktop application.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +604,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,7 +1277,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.75">
+    <row r="4" spans="1:4" ht="72.75">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -1337,32 +1351,36 @@
       <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25">
+      <c r="C5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5">
       <c r="A6" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.25">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="21">
         <v>8</v>
@@ -1370,62 +1388,66 @@
     </row>
     <row r="8" spans="1:4" ht="43.5">
       <c r="A8" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
+    <row r="9" spans="1:4" ht="57.75">
       <c r="A9" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.5">
+    <row r="10" spans="1:4" ht="72.75">
       <c r="A10" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25">
+    <row r="11" spans="1:4" ht="43.5">
       <c r="A11" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="26">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="29.25">
       <c r="A12" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21">
@@ -1445,7 +1467,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,13 +1494,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="18">
         <v>8</v>
@@ -1486,13 +1508,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="15">
         <v>8</v>
@@ -1500,13 +1522,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="19">
         <v>8</v>
@@ -1514,13 +1536,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="21">
         <v>8</v>
@@ -1528,13 +1550,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="21">
         <v>8</v>
@@ -1553,7 +1575,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1578,41 +1600,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="45.75">
       <c r="A2" s="29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C3" s="22"/>
       <c r="D3" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.25">
       <c r="A4" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="33">
         <v>8</v>
@@ -1631,7 +1653,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1658,13 +1680,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="15">
         <v>8</v>
@@ -1672,13 +1694,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="15">
         <v>8</v>
@@ -1686,13 +1708,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="15">
         <v>8</v>
@@ -1700,13 +1722,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
@@ -1725,7 +1747,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1752,27 +1774,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="21" t="s">
         <v>60</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>8</v>
@@ -1780,13 +1800,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="34">
         <v>8</v>
